--- a/test-output/testData/ExelenterEmployeeList.xlsx
+++ b/test-output/testData/ExelenterEmployeeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Demir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1AE7D5-E61C-4CE3-BB5A-DAA1C61F269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F55EC0-86EC-473C-8F68-C1BC638F8135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="15375" windowHeight="11820" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="15375" windowHeight="11520" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,24 +42,15 @@
     <t>Lee</t>
   </si>
   <si>
-    <t xml:space="preserve">elizabethlee </t>
-  </si>
-  <si>
     <t>Tyler</t>
   </si>
   <si>
     <t>UserName             Password</t>
   </si>
   <si>
-    <t>willaadams            willaadams_2023</t>
-  </si>
-  <si>
     <t>Nguyen</t>
   </si>
   <si>
-    <t>tylernguyen</t>
-  </si>
-  <si>
     <t>tylerNguyen_@2023</t>
   </si>
   <si>
@@ -103,6 +94,15 @@
   </si>
   <si>
     <t>r=11</t>
+  </si>
+  <si>
+    <t>willaadams1           willaadams_2023</t>
+  </si>
+  <si>
+    <t>elizabethlee 1</t>
+  </si>
+  <si>
+    <t>tylernguyen1</t>
   </si>
 </sst>
 </file>
@@ -196,11 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -525,7 +524,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,17 +540,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,13 +561,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,80 +578,73 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="9"/>
-      <c r="E5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
